--- a/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H2">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J2">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>34.27830402534384</v>
+        <v>75.42291622529689</v>
       </c>
       <c r="R2">
-        <v>34.27830402534384</v>
+        <v>678.806246027672</v>
       </c>
       <c r="S2">
-        <v>0.003136344623546692</v>
+        <v>0.006309906552811154</v>
       </c>
       <c r="T2">
-        <v>0.003136344623546692</v>
+        <v>0.006309906552811153</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H3">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J3">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>39.60252968314042</v>
+        <v>74.33811421031022</v>
       </c>
       <c r="R3">
-        <v>39.60252968314042</v>
+        <v>669.043027892792</v>
       </c>
       <c r="S3">
-        <v>0.003623492602164114</v>
+        <v>0.006219151651178602</v>
       </c>
       <c r="T3">
-        <v>0.003623492602164114</v>
+        <v>0.006219151651178601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.59269372201408</v>
+        <v>10.45491533333333</v>
       </c>
       <c r="H4">
-        <v>5.59269372201408</v>
+        <v>31.364746</v>
       </c>
       <c r="I4">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="J4">
-        <v>0.007286611469884</v>
+        <v>0.0134573334963438</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>5.75731619507745</v>
+        <v>11.09576330857711</v>
       </c>
       <c r="R4">
-        <v>5.75731619507745</v>
+        <v>99.86186977719399</v>
       </c>
       <c r="S4">
-        <v>0.0005267742441731941</v>
+        <v>0.0009282752923540471</v>
       </c>
       <c r="T4">
-        <v>0.0005267742441731941</v>
+        <v>0.000928275292354047</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H5">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J5">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>4480.928384623095</v>
+        <v>5305.973405573456</v>
       </c>
       <c r="R5">
-        <v>4480.928384623095</v>
+        <v>47753.7606501611</v>
       </c>
       <c r="S5">
-        <v>0.4099892350922527</v>
+        <v>0.4438995206822882</v>
       </c>
       <c r="T5">
-        <v>0.4099892350922527</v>
+        <v>0.4438995206822882</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H6">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I6">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J6">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>5176.921799540009</v>
+        <v>5229.657997340789</v>
       </c>
       <c r="R6">
-        <v>5176.921799540009</v>
+        <v>47066.9219760671</v>
       </c>
       <c r="S6">
-        <v>0.473670192098896</v>
+        <v>0.437514947947798</v>
       </c>
       <c r="T6">
-        <v>0.473670192098896</v>
+        <v>0.437514947947798</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>731.088096626592</v>
+        <v>735.4993083333334</v>
       </c>
       <c r="H7">
-        <v>731.088096626592</v>
+        <v>2206.497925</v>
       </c>
       <c r="I7">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="J7">
-        <v>0.9525204087980228</v>
+        <v>0.9467182815928301</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>752.6078751941404</v>
+        <v>780.5827191033694</v>
       </c>
       <c r="R7">
-        <v>752.6078751941404</v>
+        <v>7025.244471930325</v>
       </c>
       <c r="S7">
-        <v>0.06886098160687415</v>
+        <v>0.06530381296274401</v>
       </c>
       <c r="T7">
-        <v>0.06886098160687415</v>
+        <v>0.06530381296274401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.8493222598426</v>
+        <v>30.939307</v>
       </c>
       <c r="H8">
-        <v>30.8493222598426</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I8">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="J8">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>189.0792701978808</v>
+        <v>223.1995846479747</v>
       </c>
       <c r="R8">
-        <v>189.0792701978808</v>
+        <v>2008.796261831772</v>
       </c>
       <c r="S8">
-        <v>0.01730009022823314</v>
+        <v>0.01867295236301955</v>
       </c>
       <c r="T8">
-        <v>0.01730009022823314</v>
+        <v>0.01867295236301955</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.8493222598426</v>
+        <v>30.939307</v>
       </c>
       <c r="H9">
-        <v>30.8493222598426</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I9">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="J9">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>218.447721478338</v>
+        <v>219.9893221536547</v>
       </c>
       <c r="R9">
-        <v>218.447721478338</v>
+        <v>1979.903899382892</v>
       </c>
       <c r="S9">
-        <v>0.01998720054172045</v>
+        <v>0.01840438072242367</v>
       </c>
       <c r="T9">
-        <v>0.01998720054172045</v>
+        <v>0.01840438072242367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>30.8493222598426</v>
+        <v>30.939307</v>
       </c>
       <c r="H10">
-        <v>30.8493222598426</v>
+        <v>92.81792100000001</v>
       </c>
       <c r="I10">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="J10">
-        <v>0.04019297973209322</v>
+        <v>0.03982438491082609</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>31.75738051855862</v>
+        <v>32.83577307497433</v>
       </c>
       <c r="R10">
-        <v>31.75738051855862</v>
+        <v>295.521957674769</v>
       </c>
       <c r="S10">
-        <v>0.002905688962139623</v>
+        <v>0.002747051825382863</v>
       </c>
       <c r="T10">
-        <v>0.002905688962139623</v>
+        <v>0.002747051825382863</v>
       </c>
     </row>
   </sheetData>
